--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N2">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q2">
-        <v>6.643617586234617</v>
+        <v>9.334436150508333</v>
       </c>
       <c r="R2">
-        <v>6.643617586234617</v>
+        <v>84.009925354575</v>
       </c>
       <c r="S2">
-        <v>0.004978266421720714</v>
+        <v>0.006265563928311404</v>
       </c>
       <c r="T2">
-        <v>0.004978266421720714</v>
+        <v>0.00908396284360748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N3">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q3">
-        <v>76.77486551491459</v>
+        <v>96.41663198900167</v>
       </c>
       <c r="R3">
-        <v>76.77486551491459</v>
+        <v>867.7496879010149</v>
       </c>
       <c r="S3">
-        <v>0.05752976146865258</v>
+        <v>0.06471784280689157</v>
       </c>
       <c r="T3">
-        <v>0.05752976146865258</v>
+        <v>0.09382945990221067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N4">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q4">
-        <v>1.038965774799163</v>
+        <v>1.749321588230111</v>
       </c>
       <c r="R4">
-        <v>1.038965774799163</v>
+        <v>15.743894294071</v>
       </c>
       <c r="S4">
-        <v>0.0007785289208572853</v>
+        <v>0.001174199069499673</v>
       </c>
       <c r="T4">
-        <v>0.0007785289208572853</v>
+        <v>0.001702381595715063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H5">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I5">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J5">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N5">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q5">
-        <v>0.6231522745340421</v>
+        <v>1.438001390411</v>
       </c>
       <c r="R5">
-        <v>0.6231522745340421</v>
+        <v>12.942012513699</v>
       </c>
       <c r="S5">
-        <v>0.0004669471118204359</v>
+        <v>0.0009652312678929353</v>
       </c>
       <c r="T5">
-        <v>0.0004669471118204359</v>
+        <v>0.001399415132197144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H6">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I6">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J6">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N6">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q6">
-        <v>33.87997373471757</v>
+        <v>42.21926095391067</v>
       </c>
       <c r="R6">
-        <v>33.87997373471757</v>
+        <v>253.315565723464</v>
       </c>
       <c r="S6">
-        <v>0.0253873034416957</v>
+        <v>0.02833888134725558</v>
       </c>
       <c r="T6">
-        <v>0.0253873034416957</v>
+        <v>0.02739092050168143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J7">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N7">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O7">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P7">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q7">
-        <v>13.28098424007895</v>
+        <v>16.57658261123333</v>
       </c>
       <c r="R7">
-        <v>13.28098424007895</v>
+        <v>149.1892435011</v>
       </c>
       <c r="S7">
-        <v>0.009951848828080962</v>
+        <v>0.01112671792799842</v>
       </c>
       <c r="T7">
-        <v>0.009951848828080962</v>
+        <v>0.0161317789405237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J8">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N8">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P8">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q8">
-        <v>153.4774941065901</v>
+        <v>171.2217256074467</v>
       </c>
       <c r="R8">
-        <v>153.4774941065901</v>
+        <v>1540.99553046702</v>
       </c>
       <c r="S8">
-        <v>0.1150053935951656</v>
+        <v>0.114929348748165</v>
       </c>
       <c r="T8">
-        <v>0.1150053935951656</v>
+        <v>0.1666272893571294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J9">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N9">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O9">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P9">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q9">
-        <v>2.076953994112961</v>
+        <v>3.106537272669778</v>
       </c>
       <c r="R9">
-        <v>2.076953994112961</v>
+        <v>27.958835454028</v>
       </c>
       <c r="S9">
-        <v>0.001556325329407083</v>
+        <v>0.002085204458389773</v>
       </c>
       <c r="T9">
-        <v>0.001556325329407083</v>
+        <v>0.003023178765401614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J10">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N10">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O10">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P10">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q10">
-        <v>1.245718229538641</v>
+        <v>2.553678493148</v>
       </c>
       <c r="R10">
-        <v>1.245718229538641</v>
+        <v>22.983106438332</v>
       </c>
       <c r="S10">
-        <v>0.0009334548764346335</v>
+        <v>0.001714108446743342</v>
       </c>
       <c r="T10">
-        <v>0.0009334548764346335</v>
+        <v>0.00248515498657224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J11">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N11">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O11">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P11">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q11">
-        <v>67.72807004385317</v>
+        <v>74.97518390005868</v>
       </c>
       <c r="R11">
-        <v>67.72807004385317</v>
+        <v>449.851103400352</v>
       </c>
       <c r="S11">
-        <v>0.0507507201507001</v>
+        <v>0.05032567582961499</v>
       </c>
       <c r="T11">
-        <v>0.0507507201507001</v>
+        <v>0.04864223710707161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H12">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I12">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J12">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N12">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O12">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P12">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q12">
-        <v>54.60487331126552</v>
+        <v>66.08856783979999</v>
       </c>
       <c r="R12">
-        <v>54.60487331126552</v>
+        <v>396.5314070388</v>
       </c>
       <c r="S12">
-        <v>0.04091710634143458</v>
+        <v>0.04436070267707193</v>
       </c>
       <c r="T12">
-        <v>0.04091710634143458</v>
+        <v>0.04287679762433798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H13">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I13">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J13">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N13">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P13">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q13">
-        <v>631.0239490029718</v>
+        <v>682.63760353036</v>
       </c>
       <c r="R13">
-        <v>631.0239490029718</v>
+        <v>4095.825621182159</v>
       </c>
       <c r="S13">
-        <v>0.4728455989297155</v>
+        <v>0.4582075955981383</v>
       </c>
       <c r="T13">
-        <v>0.4728455989297155</v>
+        <v>0.4428801430269106</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H14">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I14">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J14">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N14">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O14">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P14">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q14">
-        <v>8.5394130187742</v>
+        <v>12.38533925277066</v>
       </c>
       <c r="R14">
-        <v>8.5394130187742</v>
+        <v>74.31203551662399</v>
       </c>
       <c r="S14">
-        <v>0.006398844084682245</v>
+        <v>0.008313425000805562</v>
       </c>
       <c r="T14">
-        <v>0.006398844084682245</v>
+        <v>0.008035333522994138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H15">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I15">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J15">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N15">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O15">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P15">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q15">
-        <v>5.12178050028972</v>
+        <v>10.181166908376</v>
       </c>
       <c r="R15">
-        <v>5.12178050028972</v>
+        <v>61.087001450256</v>
       </c>
       <c r="S15">
-        <v>0.003837907217424208</v>
+        <v>0.006833915953859142</v>
       </c>
       <c r="T15">
-        <v>0.003837907217424208</v>
+        <v>0.00660531537267105</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H16">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I16">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J16">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N16">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O16">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P16">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q16">
-        <v>278.464503647294</v>
+        <v>298.915804523104</v>
       </c>
       <c r="R16">
-        <v>278.464503647294</v>
+        <v>1195.663218092416</v>
       </c>
       <c r="S16">
-        <v>0.2086619932822084</v>
+        <v>0.2006415869393622</v>
       </c>
       <c r="T16">
-        <v>0.2086619932822084</v>
+        <v>0.129286631320976</v>
       </c>
     </row>
   </sheetData>
